--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>429245.6077398717</v>
+        <v>426544.3910884149</v>
       </c>
     </row>
     <row r="7">
@@ -659,23 +659,23 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
+        <v>12.83417464571001</v>
+      </c>
+      <c r="H2" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="H2" t="n">
-        <v>225.4031397636151</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>94.17661612130895</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>77.79707057279531</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>124.7650187107625</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>64.5635929624691</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>102.0757096957216</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>157.3692241629938</v>
+        <v>12.41899097776992</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.9416328899766</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3066953660375</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1149531848473</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>133.0206671741969</v>
+        <v>97.84123035967635</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951744</v>
+        <v>36.27346476951726</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258714062</v>
+        <v>4.360182258713749</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0237294698459</v>
+        <v>143.0237294698458</v>
       </c>
       <c r="T6" t="n">
         <v>193.9455960238326</v>
@@ -1032,16 +1032,16 @@
         <v>225.8398728426018</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083602</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.1307056315184</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059547</v>
+        <v>201.4735595059546</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>82.30838351024121</v>
+        <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>106.7704271215209</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1148,10 +1148,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>159.2508239713356</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>189.4755516291266</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>130.4463195566968</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>47.82814756577434</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
         <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184555</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615211</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
-        <v>100.6777408231773</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>76.66276752108844</v>
       </c>
     </row>
     <row r="12">
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.08439058953192</v>
+        <v>136.7254352278186</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905237</v>
       </c>
       <c r="S13" t="n">
         <v>186.2346889920369</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695436</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>81.74333192602187</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833721</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238286</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>96.02642072444128</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>83.0656089242818</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2245,13 +2245,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>42.20606459030805</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,13 +2482,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>220.8645017249722</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833824</v>
       </c>
       <c r="H28" t="n">
-        <v>26.1362719570589</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.2435806730863</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503964</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,13 +2959,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,19 +3187,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>102.155784569981</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>101.9268484343561</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,16 +3427,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>41.02686156550228</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417106</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,16 +3667,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833748</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>5.890337106878037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,10 +3907,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>41.02686156550138</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4141,13 +4141,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833812</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>41.02686156550228</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>788.4778634388466</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="C2" t="n">
-        <v>522.1002068716687</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="D2" t="n">
-        <v>522.1002068716687</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="E2" t="n">
-        <v>522.1002068716687</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="F2" t="n">
-        <v>515.1547061224652</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="G2" t="n">
-        <v>248.7770495552872</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H2" t="n">
         <v>21.09711040012049</v>
@@ -4364,16 +4364,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.4778634388466</v>
+        <v>573.7617370571243</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>275.4624604776052</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="C3" t="n">
-        <v>275.4624604776052</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="D3" t="n">
-        <v>275.4624604776052</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>116.2250054721497</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
         <v>21.09711040012049</v>
@@ -4410,49 +4410,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699341</v>
+        <v>95.78113116957468</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302309</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166544</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T3" t="n">
-        <v>691.074259448092</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="U3" t="n">
-        <v>691.074259448092</v>
+        <v>827.6363220413841</v>
       </c>
       <c r="V3" t="n">
-        <v>691.074259448092</v>
+        <v>592.4842138096415</v>
       </c>
       <c r="W3" t="n">
-        <v>691.074259448092</v>
+        <v>338.2468570814398</v>
       </c>
       <c r="X3" t="n">
-        <v>483.2227592425592</v>
+        <v>338.2468570814398</v>
       </c>
       <c r="Y3" t="n">
-        <v>275.4624604776052</v>
+        <v>338.2468570814398</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287944</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M4" t="n">
         <v>527.7368878375333</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227044</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4519,19 +4519,19 @@
         <v>622.5994491745502</v>
       </c>
       <c r="U4" t="n">
-        <v>356.2217926073722</v>
+        <v>496.5741777495375</v>
       </c>
       <c r="V4" t="n">
-        <v>101.5373044014853</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="W4" t="n">
-        <v>101.5373044014853</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="X4" t="n">
-        <v>101.5373044014853</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>554.8650298670407</v>
+        <v>824.6297868372169</v>
       </c>
       <c r="C5" t="n">
-        <v>554.8650298670407</v>
+        <v>824.6297868372169</v>
       </c>
       <c r="D5" t="n">
-        <v>196.5993312602902</v>
+        <v>466.3640882304664</v>
       </c>
       <c r="E5" t="n">
-        <v>196.5993312602902</v>
+        <v>363.2573107600405</v>
       </c>
       <c r="F5" t="n">
-        <v>189.6538305110867</v>
+        <v>356.3118100108371</v>
       </c>
       <c r="G5" t="n">
-        <v>30.69501822523434</v>
+        <v>343.7673746797564</v>
       </c>
       <c r="H5" t="n">
-        <v>30.69501822523434</v>
+        <v>30.69501822523456</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523434</v>
+        <v>30.69501822523456</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275073</v>
+        <v>93.76641159275169</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245546</v>
+        <v>239.0325989245567</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825605</v>
+        <v>456.1499114825643</v>
       </c>
       <c r="M5" t="n">
-        <v>729.404193174882</v>
+        <v>729.4041931748877</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202375</v>
+        <v>1011.693823202382</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798407</v>
+        <v>1264.916654798416</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189403</v>
+        <v>1446.535482189413</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261717</v>
+        <v>1534.750911261728</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261717</v>
+        <v>1534.750911261728</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261717</v>
+        <v>1389.996673518256</v>
       </c>
       <c r="T5" t="n">
-        <v>1534.750911261717</v>
+        <v>1177.398442107331</v>
       </c>
       <c r="U5" t="n">
-        <v>1281.099443398235</v>
+        <v>1177.398442107331</v>
       </c>
       <c r="V5" t="n">
-        <v>1281.099443398235</v>
+        <v>1177.398442107331</v>
       </c>
       <c r="W5" t="n">
-        <v>928.3307881281205</v>
+        <v>824.6297868372169</v>
       </c>
       <c r="X5" t="n">
-        <v>554.8650298670407</v>
+        <v>824.6297868372169</v>
       </c>
       <c r="Y5" t="n">
-        <v>554.8650298670407</v>
+        <v>824.6297868372169</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>350.6336015670052</v>
+        <v>499.8548915312046</v>
       </c>
       <c r="C6" t="n">
-        <v>350.6336015670052</v>
+        <v>325.4018622500776</v>
       </c>
       <c r="D6" t="n">
-        <v>201.6991919057539</v>
+        <v>325.4018622500776</v>
       </c>
       <c r="E6" t="n">
-        <v>201.6991919057539</v>
+        <v>166.1644072446221</v>
       </c>
       <c r="F6" t="n">
-        <v>67.33488162878731</v>
+        <v>67.33488162878736</v>
       </c>
       <c r="G6" t="n">
-        <v>67.33488162878731</v>
+        <v>67.33488162878736</v>
       </c>
       <c r="H6" t="n">
-        <v>67.33488162878731</v>
+        <v>67.33488162878736</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523434</v>
+        <v>30.69501822523456</v>
       </c>
       <c r="J6" t="n">
-        <v>49.44206107563374</v>
+        <v>49.44206107563444</v>
       </c>
       <c r="K6" t="n">
-        <v>255.4329766436094</v>
+        <v>159.6385680169451</v>
       </c>
       <c r="L6" t="n">
-        <v>449.9283204749606</v>
+        <v>354.1339118482974</v>
       </c>
       <c r="M6" t="n">
-        <v>829.7791710122355</v>
+        <v>600.4576725190437</v>
       </c>
       <c r="N6" t="n">
-        <v>1097.031033584457</v>
+        <v>980.3085230563214</v>
       </c>
       <c r="O6" t="n">
-        <v>1319.294480749975</v>
+        <v>1202.57197022184</v>
       </c>
       <c r="P6" t="n">
-        <v>1478.347425948662</v>
+        <v>1478.347425948673</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261717</v>
+        <v>1534.750911261728</v>
       </c>
       <c r="R6" t="n">
-        <v>1530.346686757965</v>
+        <v>1530.346686757977</v>
       </c>
       <c r="S6" t="n">
-        <v>1385.87827315206</v>
+        <v>1385.878273152072</v>
       </c>
       <c r="T6" t="n">
-        <v>1189.973630703744</v>
+        <v>1189.973630703756</v>
       </c>
       <c r="U6" t="n">
-        <v>961.8525470243487</v>
+        <v>961.8525470243601</v>
       </c>
       <c r="V6" t="n">
-        <v>726.7004387926061</v>
+        <v>961.8525470243601</v>
       </c>
       <c r="W6" t="n">
-        <v>726.7004387926061</v>
+        <v>707.6151902961585</v>
       </c>
       <c r="X6" t="n">
-        <v>518.8489385870732</v>
+        <v>707.6151902961585</v>
       </c>
       <c r="Y6" t="n">
-        <v>518.8489385870732</v>
+        <v>499.8548915312046</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>498.7699791645467</v>
+        <v>30.69501822523456</v>
       </c>
       <c r="C7" t="n">
-        <v>329.8337962366398</v>
+        <v>30.69501822523456</v>
       </c>
       <c r="D7" t="n">
-        <v>329.8337962366398</v>
+        <v>30.69501822523456</v>
       </c>
       <c r="E7" t="n">
-        <v>329.8337962366398</v>
+        <v>30.69501822523456</v>
       </c>
       <c r="F7" t="n">
-        <v>182.9438487387295</v>
+        <v>30.69501822523456</v>
       </c>
       <c r="G7" t="n">
-        <v>182.9438487387295</v>
+        <v>30.69501822523456</v>
       </c>
       <c r="H7" t="n">
-        <v>30.69501822523434</v>
+        <v>30.69501822523456</v>
       </c>
       <c r="I7" t="n">
-        <v>30.69501822523434</v>
+        <v>30.69501822523456</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523434</v>
+        <v>30.69501822523456</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223262</v>
+        <v>157.4322756223269</v>
       </c>
       <c r="L7" t="n">
-        <v>375.138765583038</v>
+        <v>375.1387655830393</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388138</v>
+        <v>615.0688576388159</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974805</v>
+        <v>854.7285647974833</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.07679889167</v>
+        <v>1060.076798891673</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934019</v>
+        <v>1212.267005934023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495181</v>
+        <v>1234.200536495185</v>
       </c>
       <c r="R7" t="n">
-        <v>1234.200536495181</v>
+        <v>1113.866490402743</v>
       </c>
       <c r="S7" t="n">
-        <v>1030.69189052957</v>
+        <v>910.3578444371318</v>
       </c>
       <c r="T7" t="n">
-        <v>1030.69189052957</v>
+        <v>910.3578444371318</v>
       </c>
       <c r="U7" t="n">
-        <v>947.5521092060942</v>
+        <v>621.2179736135033</v>
       </c>
       <c r="V7" t="n">
-        <v>947.5521092060942</v>
+        <v>366.5334854076165</v>
       </c>
       <c r="W7" t="n">
-        <v>947.5521092060942</v>
+        <v>258.6845691232519</v>
       </c>
       <c r="X7" t="n">
-        <v>719.5625583080769</v>
+        <v>30.69501822523456</v>
       </c>
       <c r="Y7" t="n">
-        <v>498.7699791645467</v>
+        <v>30.69501822523456</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1653.287154902436</v>
+        <v>1378.810406950777</v>
       </c>
       <c r="C8" t="n">
-        <v>1284.324637962024</v>
+        <v>1378.810406950777</v>
       </c>
       <c r="D8" t="n">
-        <v>926.0589393552737</v>
+        <v>1020.544708344026</v>
       </c>
       <c r="E8" t="n">
-        <v>540.2706867570294</v>
+        <v>634.756455745782</v>
       </c>
       <c r="F8" t="n">
-        <v>129.2847819674217</v>
+        <v>223.7705509561744</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>212.1062047208674</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2370.949882310128</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2370.949882310128</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>2039.886994966557</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W8" t="n">
-        <v>2039.886994966557</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="X8" t="n">
-        <v>2039.886994966557</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="Y8" t="n">
-        <v>2039.886994966557</v>
+        <v>1378.810406950777</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4875,28 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735142</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>1117.223096727985</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687205</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>478.6395913505859</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C10" t="n">
-        <v>478.6395913505859</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>478.6395913505859</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>478.6395913505859</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>331.7496438526755</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
         <v>51.2467865680031</v>
@@ -4960,52 +4960,52 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1485.55145342263</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>1262.572972617366</v>
       </c>
       <c r="U10" t="n">
-        <v>1216.838891429094</v>
+        <v>973.4546351212036</v>
       </c>
       <c r="V10" t="n">
-        <v>1216.838891429094</v>
+        <v>718.7701469153168</v>
       </c>
       <c r="W10" t="n">
-        <v>927.4217213921333</v>
+        <v>429.3529768783562</v>
       </c>
       <c r="X10" t="n">
-        <v>699.432170494116</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="Y10" t="n">
-        <v>478.6395913505859</v>
+        <v>201.3634259803388</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1918.837135195601</v>
+        <v>1898.076467649853</v>
       </c>
       <c r="C11" t="n">
-        <v>1549.874618255189</v>
+        <v>1529.113950709441</v>
       </c>
       <c r="D11" t="n">
-        <v>1191.608919648439</v>
+        <v>1170.848252102691</v>
       </c>
       <c r="E11" t="n">
-        <v>805.8206670501952</v>
+        <v>785.0599995044466</v>
       </c>
       <c r="F11" t="n">
-        <v>394.8347622605876</v>
+        <v>785.0599995044466</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605876</v>
+        <v>370.4442349455922</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309162</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706899</v>
+        <v>304.406079670689</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656976</v>
+        <v>695.161540565696</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625331</v>
+        <v>1216.83000462533</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087833</v>
+        <v>1828.956123087831</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484044</v>
+        <v>2455.600890484043</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535298</v>
+        <v>3033.988513535297</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479997</v>
+        <v>3493.127967479996</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464063</v>
+        <v>3789.749829464062</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796038</v>
+        <v>3876.883295796037</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345379</v>
+        <v>3876.883295796037</v>
       </c>
       <c r="T11" t="n">
-        <v>3776.999350345379</v>
+        <v>3672.904689377402</v>
       </c>
       <c r="U11" t="n">
-        <v>3523.505408466908</v>
+        <v>3419.41074749893</v>
       </c>
       <c r="V11" t="n">
-        <v>3421.810720766729</v>
+        <v>3088.347860155359</v>
       </c>
       <c r="W11" t="n">
-        <v>3069.042065496614</v>
+        <v>2735.579204885245</v>
       </c>
       <c r="X11" t="n">
-        <v>2695.576307235534</v>
+        <v>2362.113446624165</v>
       </c>
       <c r="Y11" t="n">
-        <v>2305.436975259723</v>
+        <v>2284.676307713975</v>
       </c>
     </row>
     <row r="12">
@@ -5106,37 +5106,37 @@
         <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722697</v>
+        <v>312.3928428722696</v>
       </c>
       <c r="G12" t="n">
-        <v>176.274091040601</v>
+        <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390852</v>
+        <v>88.1320871839085</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J12" t="n">
         <v>193.8410919870413</v>
       </c>
       <c r="K12" t="n">
-        <v>193.8410919870413</v>
+        <v>470.7769964046656</v>
       </c>
       <c r="L12" t="n">
-        <v>612.538132644993</v>
+        <v>676.7125526339513</v>
       </c>
       <c r="M12" t="n">
-        <v>1120.494698601521</v>
+        <v>1184.66911859048</v>
       </c>
       <c r="N12" t="n">
-        <v>1656.304008302731</v>
+        <v>1720.47842829169</v>
       </c>
       <c r="O12" t="n">
-        <v>2000.207762193667</v>
+        <v>2188.419472624213</v>
       </c>
       <c r="P12" t="n">
-        <v>2356.438638438442</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="Q12" t="n">
         <v>2544.650348868987</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>413.9718320326394</v>
+        <v>227.6543053282565</v>
       </c>
       <c r="C13" t="n">
-        <v>245.0356491047325</v>
+        <v>227.6543053282565</v>
       </c>
       <c r="D13" t="n">
-        <v>245.0356491047325</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="E13" t="n">
-        <v>245.0356491047325</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="F13" t="n">
-        <v>245.0356491047325</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="G13" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J13" t="n">
         <v>136.8552218758649</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648146</v>
+        <v>364.1690246648145</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344811</v>
+        <v>710.578865434481</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.20859537694</v>
+        <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336948</v>
+        <v>1458.341306336947</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818665</v>
+        <v>1786.049800818664</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010723</v>
+        <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
         <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742808</v>
+        <v>2056.743466925583</v>
       </c>
       <c r="S13" t="n">
-        <v>1949.247121276105</v>
+        <v>1868.627619458879</v>
       </c>
       <c r="T13" t="n">
-        <v>1728.355788710545</v>
+        <v>1647.73628689332</v>
       </c>
       <c r="U13" t="n">
-        <v>1439.264095659996</v>
+        <v>1358.644593842771</v>
       </c>
       <c r="V13" t="n">
-        <v>1184.579607454109</v>
+        <v>1103.960105636884</v>
       </c>
       <c r="W13" t="n">
-        <v>895.1624374171485</v>
+        <v>814.5429355999236</v>
       </c>
       <c r="X13" t="n">
-        <v>667.1728865191311</v>
+        <v>586.5533847019062</v>
       </c>
       <c r="Y13" t="n">
-        <v>446.380307375601</v>
+        <v>365.7608055583761</v>
       </c>
     </row>
     <row r="14">
@@ -5270,34 +5270,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y16" t="n">
-        <v>1099.149479058937</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="17">
@@ -5510,31 +5510,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3046.798896214207</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C19" t="n">
-        <v>2949.802511644064</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D19" t="n">
-        <v>2799.685872231728</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>2651.772778649335</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>2504.882831151425</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>3966.646661122954</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>3677.229491085994</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>3449.239940187977</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y19" t="n">
-        <v>3228.447361044447</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111725</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5765,13 +5765,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,19 +5826,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>184.7035232280589</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5917,7 +5917,7 @@
         <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199801</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993914</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058936</v>
+        <v>916.2946447138416</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516144</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.533952578166</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373306</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
         <v>2516.421633107662</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6148,49 +6148,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.506784258107</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1789.82229605222</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.405126015259</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="26">
@@ -6215,25 +6215,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>95.58405025273905</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>692.9625378792909</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>1320.560501433898</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1872.470231673185</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098242</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4194208819174</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D28" t="n">
-        <v>664.3027814695816</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E28" t="n">
-        <v>516.3896878871885</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F28" t="n">
-        <v>369.4997403892781</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G28" t="n">
-        <v>202.3036411041581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6397,37 +6397,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="29">
@@ -6455,58 +6455,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O30" t="n">
-        <v>2223.769289033212</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C31" t="n">
-        <v>847.644273983533</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1394.184733704552</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y31" t="n">
-        <v>1173.392154561022</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="32">
@@ -6677,34 +6677,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6713,34 +6713,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>372.4964262156759</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>867.8220324314346</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>1465.200520057987</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>2092.798483612593</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>705.9324428257313</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257313</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
         <v>435.7419440038343</v>
@@ -6877,31 +6877,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1108.373486799501</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y34" t="n">
-        <v>887.580907655971</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="35">
@@ -6935,7 +6935,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7114,31 +7114,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7166,55 +7166,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>842.6091804069456</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>1470.207143961552</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O39" t="n">
-        <v>2022.116874200839</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P39" t="n">
-        <v>2445.740023695907</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998279</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998279</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138404</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
     <row r="41">
@@ -7403,7 +7403,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7415,43 +7415,43 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961526</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1965.532750177311</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612593</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536384</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257315</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133958</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310027</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625426</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="44">
@@ -7640,22 +7640,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
@@ -7664,16 +7664,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,25 +7719,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536382</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133955</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310024</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625426</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127218</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127223</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438637051</v>
+        <v>34.43939438636988</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,22 +8295,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>96.76202891582403</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>134.8758483500303</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>113.7363514798533</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>117.9015257860042</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>265.0304328515139</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>84.94186588374703</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132659</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184554</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615211</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>227.0745176469576</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>309.5751711349652</v>
       </c>
     </row>
     <row r="12">
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>147.7475895924054</v>
+        <v>43.10654495411873</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
         <v>142.9518949665179</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905237</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>98.08864825591543</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>40.32043864788668</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016469</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>71.22040037418655</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24133,13 +24133,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>46.45968844823042</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>176.3785887617867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>4.84515366406491</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393061</v>
       </c>
       <c r="H28" t="n">
-        <v>114.158440889165</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.58839950885101</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823147</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>46.4596884482314</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>123.7828069546811</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>176.378588761786</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>45.44677382459376</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,10 +25600,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>280.2941372823661</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>139.9994244361432</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26071,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>139.9994244361423</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>945030.2778200773</v>
+        <v>945030.2778200774</v>
       </c>
     </row>
     <row r="6">
@@ -26317,22 +26317,22 @@
         <v>389994.8406855343</v>
       </c>
       <c r="D2" t="n">
-        <v>389994.8406855349</v>
+        <v>389994.8406855348</v>
       </c>
       <c r="E2" t="n">
-        <v>347979.8910303382</v>
+        <v>347979.891030338</v>
       </c>
       <c r="F2" t="n">
+        <v>383394.6348527528</v>
+      </c>
+      <c r="G2" t="n">
+        <v>383394.634852753</v>
+      </c>
+      <c r="H2" t="n">
         <v>383394.6348527529</v>
       </c>
-      <c r="G2" t="n">
-        <v>383394.6348527528</v>
-      </c>
-      <c r="H2" t="n">
-        <v>383394.6348527528</v>
-      </c>
       <c r="I2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.634852753</v>
       </c>
       <c r="J2" t="n">
         <v>383394.6348527528</v>
@@ -26341,19 +26341,19 @@
         <v>383394.6348527528</v>
       </c>
       <c r="L2" t="n">
+        <v>383394.6348527531</v>
+      </c>
+      <c r="M2" t="n">
         <v>383394.6348527528</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>383394.634852753</v>
+      </c>
+      <c r="O2" t="n">
         <v>383394.6348527529</v>
       </c>
-      <c r="N2" t="n">
-        <v>383394.6348527528</v>
-      </c>
-      <c r="O2" t="n">
-        <v>383394.634852753</v>
-      </c>
       <c r="P2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.6348527529</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657048</v>
+        <v>132804.2190657079</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929398</v>
+        <v>265413.0723929367</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545775</v>
+        <v>313577.1573545777</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704285</v>
+        <v>189308.2687704287</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.4292641738</v>
+        <v>30877.42926417446</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049612</v>
+        <v>65018.34502049541</v>
       </c>
       <c r="M3" t="n">
         <v>81897.40371273085</v>
@@ -26418,7 +26418,7 @@
         <v>252122.0652631775</v>
       </c>
       <c r="C4" t="n">
-        <v>216477.7990382065</v>
+        <v>216477.7990382056</v>
       </c>
       <c r="D4" t="n">
         <v>141542.8205525801</v>
@@ -26427,7 +26427,7 @@
         <v>11671.55765715928</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.97621680581</v>
       </c>
       <c r="G4" t="n">
         <v>11776.97621680582</v>
@@ -26439,25 +26439,25 @@
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
+        <v>11776.97621680583</v>
+      </c>
+      <c r="K4" t="n">
         <v>11776.97621680582</v>
       </c>
-      <c r="K4" t="n">
-        <v>11776.97621680578</v>
-      </c>
       <c r="L4" t="n">
-        <v>11776.97621680576</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680586</v>
       </c>
       <c r="O4" t="n">
-        <v>11776.97621680579</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="P4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680582</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.6503866748</v>
+        <v>72593.650386675</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.4850673857</v>
+        <v>85137.48506738569</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-605263.0083731022</v>
       </c>
       <c r="C6" t="n">
-        <v>-31880.82780505173</v>
+        <v>-31880.82780505423</v>
       </c>
       <c r="D6" t="n">
-        <v>-109898.8246998297</v>
+        <v>-109898.8246998267</v>
       </c>
       <c r="E6" t="n">
-        <v>-62406.3090487843</v>
+        <v>-62627.44036275941</v>
       </c>
       <c r="F6" t="n">
-        <v>81186.86004161142</v>
+        <v>81152.12211617551</v>
       </c>
       <c r="G6" t="n">
-        <v>270495.1288120399</v>
+        <v>270460.3908866043</v>
       </c>
       <c r="H6" t="n">
-        <v>270495.1288120399</v>
+        <v>270460.3908866043</v>
       </c>
       <c r="I6" t="n">
-        <v>270495.1288120397</v>
+        <v>270460.3908866043</v>
       </c>
       <c r="J6" t="n">
-        <v>201495.9743929258</v>
+        <v>201461.2364674901</v>
       </c>
       <c r="K6" t="n">
-        <v>239617.6995478662</v>
+        <v>239582.9616224297</v>
       </c>
       <c r="L6" t="n">
-        <v>205476.7837915438</v>
+        <v>205442.045866109</v>
       </c>
       <c r="M6" t="n">
-        <v>188597.7250993091</v>
+        <v>188562.9871738733</v>
       </c>
       <c r="N6" t="n">
-        <v>220655.5546800164</v>
+        <v>220620.8167545807</v>
       </c>
       <c r="O6" t="n">
-        <v>270495.12881204</v>
+        <v>270460.3908866043</v>
       </c>
       <c r="P6" t="n">
-        <v>270495.1288120399</v>
+        <v>270460.3908866043</v>
       </c>
     </row>
   </sheetData>
@@ -26719,7 +26719,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26738,10 +26738,10 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695731</v>
+        <v>717.3319511695755</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1202.241237214951</v>
@@ -26790,13 +26790,13 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154292</v>
+        <v>383.687727815432</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490095</v>
+        <v>969.2208239490093</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26814,22 +26814,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26960,13 +26960,13 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000948</v>
+        <v>103.2769374000972</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479662</v>
+        <v>216.7329409479636</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974113</v>
+        <v>268.1763450974115</v>
       </c>
       <c r="F3" t="n">
         <v>165.7342631267231</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.973847813923</v>
+        <v>119.9738478139258</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846096</v>
+        <v>256.8971042846068</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489708</v>
+        <v>328.6359918489705</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506386</v>
+        <v>203.4874641506391</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,10 +27036,10 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139232</v>
+        <v>119.9738478139258</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846096</v>
+        <v>256.8971042846068</v>
       </c>
       <c r="M4" t="n">
         <v>328.6359918489705</v>
@@ -27258,16 +27258,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.973847813923</v>
+        <v>119.9738478139258</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846096</v>
+        <v>256.8971042846068</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489708</v>
+        <v>328.6359918489705</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506386</v>
+        <v>203.4874641506391</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>88.79049286565294</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27436,16 +27436,16 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>157.1621355605639</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,19 +27455,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>50.89259627207493</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>148.0574169307593</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27558,7 +27558,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117134</v>
+        <v>161.493611791915</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>154.0210603896257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>279.8546603765402</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>255.0497668147761</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9416328899766</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863718</v>
+        <v>99.30025118863681</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660377</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4722490968155</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,25 +27692,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>12.04854521918693</v>
+        <v>47.22798203370753</v>
       </c>
       <c r="G6" t="n">
         <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333231</v>
+        <v>97.33388804333225</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27752,16 +27752,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.7263422083601</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015378</v>
+        <v>116.5499160015377</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643763</v>
+        <v>1.905236112643465</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315185</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4186055422209</v>
+        <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
-        <v>203.940088605151</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>179.7525712150701</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>141.7677285910698</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>17.18263335110711</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,19 +28014,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>35.86028048810738</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>146.8343127959631</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28533,7 +28533,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>-8.432048548124569e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -28542,7 +28542,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-6.063298011819521e-13</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>7.71678812803845e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365116</v>
+        <v>2.883746537365126</v>
       </c>
       <c r="H5" t="n">
-        <v>29.5331692257905</v>
+        <v>29.5331692257906</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817687</v>
+        <v>111.1756383817691</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756927</v>
+        <v>244.7543826756935</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023582</v>
+        <v>366.8233736023594</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952459</v>
+        <v>455.0768316952474</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791128</v>
+        <v>506.3606591791145</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284014</v>
+        <v>514.5541040284032</v>
       </c>
       <c r="O5" t="n">
-        <v>485.878849397477</v>
+        <v>485.8788493974787</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562757</v>
+        <v>414.6863567562771</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868874</v>
+        <v>311.4121838868884</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277616</v>
+        <v>181.1461434277622</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020764</v>
+        <v>65.71337422020787</v>
       </c>
       <c r="T5" t="n">
-        <v>12.6236004673158</v>
+        <v>12.62360046731584</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892092</v>
+        <v>0.23069972298921</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270403</v>
+        <v>1.542940423270408</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316415</v>
+        <v>14.9015561931642</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189764</v>
+        <v>53.12316808189782</v>
       </c>
       <c r="J6" t="n">
-        <v>145.774033586262</v>
+        <v>145.7740335862625</v>
       </c>
       <c r="K6" t="n">
-        <v>249.151041945379</v>
+        <v>249.1510419453799</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438653</v>
+        <v>335.0143230438664</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874173</v>
+        <v>390.9459133874186</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189105</v>
+        <v>401.2930884189119</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348664</v>
+        <v>367.1047769348676</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190649</v>
+        <v>294.6339480190659</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739553</v>
+        <v>196.9549915739559</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392907</v>
+        <v>95.79765189392938</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399189</v>
+        <v>28.65944163399199</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989032</v>
+        <v>6.219132670989054</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1015092383730528</v>
+        <v>0.1015092383730532</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141853</v>
+        <v>1.293549420141857</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907939</v>
+        <v>11.50083029907943</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572047</v>
+        <v>38.9005589257206</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402901</v>
+        <v>91.45394400402931</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401171</v>
+        <v>150.2869235401176</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545443</v>
+        <v>192.3155201545449</v>
       </c>
       <c r="M7" t="n">
-        <v>202.769751377327</v>
+        <v>202.7697513773277</v>
       </c>
       <c r="N7" t="n">
-        <v>197.948339902253</v>
+        <v>197.9483399022536</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669594</v>
+        <v>182.8373307669601</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960655</v>
+        <v>156.448922596066</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266055</v>
+        <v>108.3171246266059</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565094</v>
+        <v>58.16268574565113</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101756</v>
+        <v>22.54303853101763</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060643</v>
+        <v>5.526983886060662</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864661</v>
+        <v>0.07055724109864685</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,10 +31841,10 @@
         <v>244.3158348193137</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>417.5746757598381</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747749</v>
+        <v>346.570093142789</v>
       </c>
       <c r="M12" t="n">
         <v>655.2214742821481</v>
@@ -31853,13 +31853,13 @@
         <v>672.5632370340505</v>
       </c>
       <c r="O12" t="n">
-        <v>489.9737736272081</v>
+        <v>615.2639659924474</v>
       </c>
       <c r="P12" t="n">
         <v>493.8035753383446</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.094612904754</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>160.5559146605174</v>
@@ -32072,34 +32072,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>689.3300812557329</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,22 +32546,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>227.8611086463993</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>499.3768644016567</v>
+        <v>753.6188077738268</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>548.8125296967487</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>429.5828357723605</v>
+        <v>284.1014732918236</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33287,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>266.3926848685833</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>353.6230700590495</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>570.6116741576916</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>320.9147064709962</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,13 +33962,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33980,31 +33980,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>211.3773391483997</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>271.1474903386687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>362.5355639238086</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>320.9147064709962</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089027</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659563</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877686</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900645</v>
+        <v>63.70847814900725</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573776</v>
+        <v>146.7335225573788</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252587</v>
+        <v>219.3104167252602</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518401</v>
+        <v>276.0144259518418</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318105</v>
+        <v>285.1410404318123</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757903</v>
+        <v>255.780637975792</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010062</v>
+        <v>183.4533610010075</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243788</v>
+        <v>89.10649401243896</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.93640691959536</v>
+        <v>18.93640691959584</v>
       </c>
       <c r="K6" t="n">
-        <v>208.071631886844</v>
+        <v>111.3096029710209</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639911</v>
+        <v>196.4599432639922</v>
       </c>
       <c r="M6" t="n">
-        <v>383.6877278154292</v>
+        <v>248.8118794654003</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355773</v>
+        <v>383.687727815432</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904219</v>
+        <v>224.5085324904231</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047347</v>
+        <v>278.5610663907398</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.97321748793377</v>
+        <v>56.97321748793442</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142342</v>
+        <v>128.0174317142347</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148604</v>
+        <v>219.905545414861</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391676</v>
+        <v>242.3536283391683</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814816</v>
+        <v>242.0805122814822</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809991</v>
+        <v>207.4224586809997</v>
       </c>
       <c r="P7" t="n">
-        <v>153.727481860959</v>
+        <v>153.7274818609595</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491115</v>
+        <v>22.15508137491152</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>562.7107934893642</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>451.8731981657875</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>117.478208152647</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>279.7332367854791</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949007</v>
+        <v>208.0157133629148</v>
       </c>
       <c r="M12" t="n">
         <v>513.0874403601297</v>
@@ -35501,13 +35501,13 @@
         <v>541.2215249507173</v>
       </c>
       <c r="O12" t="n">
-        <v>347.3775291827637</v>
+        <v>472.667721548003</v>
       </c>
       <c r="P12" t="n">
         <v>359.8291679240143</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187325</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>14.87641069655348</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>557.9883691723996</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>90.01966967204031</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>368.0351523183234</v>
+        <v>622.2770956904935</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>414.8381222824185</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>295.6084283580303</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>128.5512458942243</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>211.4890361370311</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>432.0572943778175</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>189.5729943876629</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>71.39556506237817</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>128.5512458942243</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>189.5729943876629</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
